--- a/data/georgia_census/qvemo-qartli/bolnisi/education_graduates.xlsx
+++ b/data/georgia_census/qvemo-qartli/bolnisi/education_graduates.xlsx
@@ -1839,13 +1839,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABF09EA-27E4-4D12-87F6-48FB0D27B603}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373804BB-6807-44F7-B6EE-090B9B3F7B13}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E6EF917-DC0D-4723-8977-E7F12E0653B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{211DE5D5-7A4A-410D-B3BB-32DD03108BCA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E61E356-F58E-4529-B4B9-83D457105A19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D06DE5A4-C7F0-4D2D-9032-3376A549D4AE}"/>
 </file>